--- a/analysis/preprocessedData/subjData/subject_data.xlsx
+++ b/analysis/preprocessedData/subjData/subject_data.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mankewitz/Projects/BounCES/BounCES/analysis/preprocessedData/subjData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experiments\BounCES\analysis\preprocessedData\subjData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF4C9B-19BE-B04F-8293-916246976DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B38E53-DB59-44BA-8B05-B05AF5A9D204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="160" windowWidth="26960" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36285" yWindow="165" windowWidth="26955" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PILOT-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Tracker" sheetId="2" r:id="rId3"/>
+    <sheet name="PILOT-2" sheetId="4" r:id="rId1"/>
+    <sheet name="PILOT-1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tracker" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
   <si>
     <t>Sub Num</t>
   </si>
@@ -278,13 +268,76 @@
   </si>
   <si>
     <t xml:space="preserve">Child was very squirmy during calibration, so we calibrated two times, but the calibration was not good. She ended up being in a good position for the calibration of the test phase, but she was really squirmy during the experiment, but seemed to be engaged with some of the test trials. </t>
+  </si>
+  <si>
+    <t>BOP201</t>
+  </si>
+  <si>
+    <t>BOP202</t>
+  </si>
+  <si>
+    <t>BOP203</t>
+  </si>
+  <si>
+    <t>BOP204</t>
+  </si>
+  <si>
+    <t>BOP205</t>
+  </si>
+  <si>
+    <t>BOP206</t>
+  </si>
+  <si>
+    <t>BOP207</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good calibration, attentive child overall. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good calibration, new eye tracker worked fine, attentive child overall. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attentive child. </t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>Super attentive. 3/4 Test trials good - last one child readjusted and lost track.</t>
+  </si>
+  <si>
+    <t>White and Other</t>
+  </si>
+  <si>
+    <t>Fussed out</t>
+  </si>
+  <si>
+    <t>Good calibration and attentive for most of training, but got distracted at the end and mom waved to stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay calibration. Half attentive, but became wiggly for most parts of the test trials. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child was very attentive during exposure phase. He moved his head a little bit a few times during test phase, but did good overall. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used the Tobii Pro Eye Tracker software instead of the old calibration software, worked fine. Child was focused overall. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good calibration based on the five dots of the calibration, but child sat on mum's right lap because mum is very pregnant so her head could not fit in the head image of the calibration. She also could ot separate from her lion toy (but it does not seem to impact her attentiveness during the experiment). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I adjusted the TV and the chair multiple times to have a good calibration. She was attentive during exposure but became wiggly during some parts of the test phase. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -391,6 +444,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -416,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,24 +762,388 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4EF6F9-95C9-46D7-9C96-DD8D2528D33D}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F2" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="G2" s="13">
+        <v>-6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>32.6</v>
+      </c>
+      <c r="F3">
+        <v>32.4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>-7</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>33.1</v>
+      </c>
+      <c r="F4">
+        <v>32.6</v>
+      </c>
+      <c r="G4" s="14">
+        <v>-17</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F5">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>34.1</v>
+      </c>
+      <c r="F6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G6" s="14">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F7">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>33.4</v>
+      </c>
+      <c r="F8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
@@ -729,7 +1151,7 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +1204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -830,7 +1252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -875,7 +1297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -916,7 +1338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -957,7 +1379,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1423,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="8" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1101,7 +1523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1571,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1190,7 +1612,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1238,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1285,7 +1707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="15.95" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -1326,7 +1748,7 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1368,7 +1790,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -1379,7 +1801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1423,7 +1845,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1434,7 +1856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1445,7 +1867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -1453,10 +1875,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="G21" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="4"/>
     </row>
   </sheetData>
@@ -1466,19 +1888,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F20270D-BE21-4014-8B25-A93CF222AE41}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC026A89-0EFF-F949-9BAD-3AF5BBA23CC1}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1486,12 +1908,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1502,7 +1924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="5">
         <f>COUNTIFS('PILOT-1'!$L$2:$L$98,"yes", 'PILOT-1'!$E$2:$E$98,"&lt;=19")</f>
         <v>2</v>
@@ -1516,7 +1938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1524,7 +1946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="5">
         <f>COUNTIFS('PILOT-1'!$L$2:$L$98,"yes", 'PILOT-1'!$E$2:$E$98,"&gt;=32")</f>
         <v>3</v>
